--- a/epigraphhub/data/brasil/sinan/metadata/ANIM.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/ANIM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="285">
   <si>
     <t xml:space="preserve">Nome do campo</t>
   </si>
@@ -228,8 +228,7 @@
     <t xml:space="preserve">ANT_MUNIC_</t>
   </si>
   <si>
-    <t xml:space="preserve">36. Localidade da
-ocorrência do acidente</t>
+    <t xml:space="preserve">36. Localidade da ocorrência do acidente</t>
   </si>
   <si>
     <t xml:space="preserve">ds_localidade_ocorrencia</t>
@@ -372,6 +371,15 @@
     <t xml:space="preserve">MCLI_LOCAL</t>
   </si>
   <si>
+    <t xml:space="preserve">41. Se Manifestações locais sim, especificar (Dor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st_manifestacao_dor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se manifestações locais sim, informar se houve dor</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -380,71 +388,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">41. Se Manifestações </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">locais sim, especificar
-(Dor)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">st_manifestacao_dor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 – Sim
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 – Não
-9 – Ignorado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Se manifestações locais </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">sim, informar se houve dor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Campo obrigatório </t>
     </r>
     <r>
@@ -452,6 +395,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">se campo 40 – Manifestações locais
 =1</t>
@@ -461,8 +405,7 @@
     <t xml:space="preserve">CLI_DOR</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Se Manifestações locais sim, especificar
-(Edema)</t>
+    <t xml:space="preserve">41. Se Manifestações locais sim, especificar (Edema)</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_edema</t>
@@ -471,33 +414,10 @@
     <t xml:space="preserve">Se manifestações locais sim, informar se houve (edema)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Campo obrigatório </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">se campo 40 – Manifestações locais
-=1</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">CLI_EDEMA</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Se Manifestações locais sim, especificar
-(Equimose)</t>
+    <t xml:space="preserve">41. Se Manifestações locais sim, especificar (Equimose)</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_equimose</t>
@@ -509,8 +429,7 @@
     <t xml:space="preserve">CLI_EQUIMO</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Se Manifestações locais sim, especificar
-(Necrose)</t>
+    <t xml:space="preserve">41. Se Manifestações locais sim, especificar (Necrose)</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_necrose</t>
@@ -522,8 +441,7 @@
     <t xml:space="preserve">CLI_NECROS</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Se Manifestações locais sim, especificar
-(Outras)</t>
+    <t xml:space="preserve">41. Se Manifestações locais sim, especificar (Outras)</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_outro</t>
@@ -571,8 +489,7 @@
     <t xml:space="preserve">MCLI_SIST</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Se manifestações sistêmicas sim, especificar neuroparalíticas (ptose palpebral,
-turvação visual)</t>
+    <t xml:space="preserve">43. Se manifestações sistêmicas sim, especificar neuroparalíticas (ptose palpebral, turvação visual)</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_sist_neuropara</t>
@@ -606,9 +523,7 @@
     <t xml:space="preserve">CLI_NEURO</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Se manifestações sistêmicas sim, especificar
-Hemorrágicas (gengivorragia, outros
-sangramentos)</t>
+    <t xml:space="preserve">43. Se manifestações sistêmicas sim, especificar Hemorrágicas (gengivorragia, outros sangramentos)</t>
   </si>
   <si>
     <t xml:space="preserve">st_manifestacao_sist_hemorrag</t>
@@ -1118,27 +1033,7 @@
     <t xml:space="preserve">CON_SOROTE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">51. Se soroterapia sim,
-especificar, número </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">de ampolas  de soro:
-antibrotópico (SAB)</t>
-    </r>
+    <t xml:space="preserve">51. Se soroterapia sim, especificar, número de ampolas  de soro: antibrotópico (SAB)</t>
   </si>
   <si>
     <t xml:space="preserve">nu_antibotropico</t>
@@ -1147,30 +1042,13 @@
     <t xml:space="preserve">number(2)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informar o número de ampolas aplicadas (soro </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">antibrotópico)</t>
-    </r>
+    <t xml:space="preserve">Informar o número de ampolas aplicadas (soro antibrotópico)</t>
   </si>
   <si>
     <t xml:space="preserve">NU_AMPOLAS</t>
   </si>
   <si>
-    <t xml:space="preserve">51. Se soroterapia sim, especificar, número de ampolas  de soro:
-anticrotálico (SAC)</t>
+    <t xml:space="preserve">51. Se soroterapia sim, especificar, número de ampolas  de soro: anticrotálico (SAC)</t>
   </si>
   <si>
     <t xml:space="preserve">nu_anticrotalico</t>
@@ -1182,8 +1060,7 @@
     <t xml:space="preserve">NU_AMPOL_1</t>
   </si>
   <si>
-    <t xml:space="preserve">51. Se soroterapia sim,
-especificar,  número de ampolas de soro: antiaracnídico (SAAr)</t>
+    <t xml:space="preserve">51. Se soroterapia sim, especificar,  número de ampolas de soro: antiaracnídico (SAAr)</t>
   </si>
   <si>
     <t xml:space="preserve">nu_antiaracnidico</t>
@@ -1207,8 +1084,7 @@
     <t xml:space="preserve">NU_AMPOL_6</t>
   </si>
   <si>
-    <t xml:space="preserve">51. Se soroterapia sim, especificar, número de ampolas  de soro:
-antielapídico (SAEL)</t>
+    <t xml:space="preserve">51. Se soroterapia sim, especificar, número de ampolas  de soro: antielapídico (SAEL)</t>
   </si>
   <si>
     <t xml:space="preserve">nu_antielapidico</t>
@@ -1220,8 +1096,7 @@
     <t xml:space="preserve">NU_AMPOL_4</t>
   </si>
   <si>
-    <t xml:space="preserve">51. Se soroterapia sim, especificar, número de ampolas de soro:
-antiloxoscélico (SALox)</t>
+    <t xml:space="preserve">51. Se soroterapia sim, especificar, número de ampolas de soro: antiloxoscélico (SALox)</t>
   </si>
   <si>
     <t xml:space="preserve">nu_antiloxoscelico</t>
@@ -1254,9 +1129,7 @@
     <t xml:space="preserve">NU_AMPOL_9</t>
   </si>
   <si>
-    <t xml:space="preserve">51. Se soroterapia sim,
-especificar, número de ampolas de soro:
-antilonômico (SALon)</t>
+    <t xml:space="preserve">51. Se soroterapia sim, especificar, número de ampolas de soro: antilonômico (SALon)</t>
   </si>
   <si>
     <t xml:space="preserve">nu_antilonomico</t>
@@ -1284,8 +1157,7 @@
     <t xml:space="preserve">COM_LOC</t>
   </si>
   <si>
-    <t xml:space="preserve">53. Se complicações locais Sim, especificar -
-Infecção Secundária</t>
+    <t xml:space="preserve">53. Se complicações locais Sim, especificar - Infecção Secundária</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_local_infeccao</t>
@@ -1320,8 +1192,7 @@
     <t xml:space="preserve">COM_SECUND</t>
   </si>
   <si>
-    <t xml:space="preserve">53. Se complicações locais Sim, especificar -
-Necrose Extensa</t>
+    <t xml:space="preserve">53. Se complicações locais Sim, especificar - Necrose Extensa</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_local_necrose</t>
@@ -1333,8 +1204,7 @@
     <t xml:space="preserve">COM_NECROS</t>
   </si>
   <si>
-    <t xml:space="preserve">53. Se complicações locais Sim, especificar -
-Síndrome Comportamental</t>
+    <t xml:space="preserve">53. Se complicações locais Sim, especificar - Síndrome Comportamental</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_local_sindrome</t>
@@ -1368,8 +1238,7 @@
     <t xml:space="preserve">COM_COMPAR</t>
   </si>
   <si>
-    <t xml:space="preserve">53. Se complicações locais Sim, especificar -
-Déficit Funcional</t>
+    <t xml:space="preserve">53. Se complicações locais Sim, especificar - Déficit Funcional</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_local_deficit</t>
@@ -1381,8 +1250,7 @@
     <t xml:space="preserve">COM_DEFICT</t>
   </si>
   <si>
-    <t xml:space="preserve">53. Se complicações locais Sim, especificar -
-Amputação</t>
+    <t xml:space="preserve">53. Se complicações locais Sim, especificar - Amputação</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_local_amputacao</t>
@@ -1443,8 +1311,7 @@
     <t xml:space="preserve">COM_RENAL</t>
   </si>
   <si>
-    <t xml:space="preserve">55. Se complicações sistêmicas, especificar -
-Insuficiência Respiratória/ Edema Pulmonar Agudo</t>
+    <t xml:space="preserve">55. Se complicações sistêmicas, especificar - Insuficiência Respiratória/ Edema Pulmonar Agudo</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_sist_respiratoria</t>
@@ -1511,8 +1378,7 @@
     <t xml:space="preserve">COM_SEPTIC</t>
   </si>
   <si>
-    <t xml:space="preserve">55. Se complicações sistêmicas, especificar -
-Choque</t>
+    <t xml:space="preserve">55. Se complicações sistêmicas, especificar - Choque</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_sist_choque</t>
@@ -1607,8 +1473,7 @@
     <t xml:space="preserve">DT_OBITO</t>
   </si>
   <si>
-    <t xml:space="preserve">59. Data do
-encerramento</t>
+    <t xml:space="preserve">59. Data do encerramento</t>
   </si>
   <si>
     <t xml:space="preserve">dt_encerramento</t>
@@ -1683,7 +1548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1725,17 +1590,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1905,8 +1759,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="10" sqref="A7 A12:A16 A19:A20 A34:A36 A38:A39 A42 A44:A48 A51 A53 A57 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2173,25 +2027,25 @@
         <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>39</v>
@@ -2200,22 +2054,22 @@
         <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>39</v>
@@ -2224,22 +2078,22 @@
         <v>57</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>39</v>
@@ -2248,22 +2102,22 @@
         <v>57</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>39</v>
@@ -2272,44 +2126,44 @@
         <v>57</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>39</v>
@@ -2318,22 +2172,22 @@
         <v>57</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>39</v>
@@ -2342,22 +2196,22 @@
         <v>57</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>39</v>
@@ -2366,22 +2220,22 @@
         <v>57</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>39</v>
@@ -2390,22 +2244,22 @@
         <v>57</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>39</v>
@@ -2414,22 +2268,22 @@
         <v>57</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>39</v>
@@ -2438,22 +2292,22 @@
         <v>57</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>39</v>
@@ -2462,206 +2316,206 @@
         <v>57</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="H25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="H29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="H30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="H31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>39</v>
@@ -2670,202 +2524,202 @@
         <v>57</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>39</v>
@@ -2874,22 +2728,22 @@
         <v>57</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>39</v>
@@ -2898,22 +2752,22 @@
         <v>57</v>
       </c>
       <c r="E44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>39</v>
@@ -2922,22 +2776,22 @@
         <v>57</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>39</v>
@@ -2946,22 +2800,22 @@
         <v>57</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>39</v>
@@ -2970,22 +2824,22 @@
         <v>57</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>39</v>
@@ -2994,22 +2848,22 @@
         <v>57</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>39</v>
@@ -3018,22 +2872,22 @@
         <v>57</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>39</v>
@@ -3042,22 +2896,22 @@
         <v>57</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>39</v>
@@ -3066,22 +2920,22 @@
         <v>57</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="H51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>39</v>
@@ -3090,22 +2944,22 @@
         <v>57</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="H52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>39</v>
@@ -3114,22 +2968,22 @@
         <v>57</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>39</v>
@@ -3138,42 +2992,42 @@
         <v>57</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>9</v>
@@ -3181,19 +3035,19 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>9</v>
@@ -3201,54 +3055,54 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="91.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="H59" s="7"/>
     </row>

--- a/epigraphhub/data/brasil/sinan/metadata/ANIM.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/ANIM.xlsx
@@ -124,8 +124,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ID_OCUPA_N
-Exportado código CBO com 6 caracteres.</t>
+    <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
     <t xml:space="preserve">33. Data do acidente</t>
@@ -1759,8 +1758,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="10" sqref="A7 A12:A16 A19:A20 A34:A36 A38:A39 A42 A44:A48 A51 A53 A57 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
